--- a/config_aomi_11.9/game_module_config.xlsx
+++ b/config_aomi_11.9/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="1049">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3993,6 +3993,18 @@
   </si>
   <si>
     <t>sys_act_base_style/sys_act_base_weekly_040</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_zzpw</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>至尊排位</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTZZPWManager</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4672,13 +4684,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I355"/>
+  <dimension ref="A1:I356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C311" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C335" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E326" sqref="E326"/>
+      <selection pane="bottomRight" activeCell="C358" sqref="C358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13718,6 +13730,32 @@
       </c>
       <c r="I355" s="63" t="s">
         <v>1040</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356" s="5">
+        <v>355</v>
+      </c>
+      <c r="B356" s="9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C356" s="64" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D356" s="64" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E356" s="5">
+        <v>1</v>
+      </c>
+      <c r="F356" s="5">
+        <v>1</v>
+      </c>
+      <c r="G356" s="5">
+        <v>1</v>
+      </c>
+      <c r="I356" s="63">
+        <v>44522</v>
       </c>
     </row>
   </sheetData>
